--- a/etc/parameter.xlsx
+++ b/etc/parameter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STKfile\all\starperf\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\ISTN\AIops\starperf\matlab_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E81D09-6A05-4459-830D-91B2C9622550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C974D9-F828-4C2F-AE8F-8FB2B72FFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inclined_Telesat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Altitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +60,10 @@
   </si>
   <si>
     <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarLink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,17 +392,17 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -410,15 +410,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1200</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6557</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
